--- a/NICEDesign/AngaraA_개발설계서_05_AOC통신AP_전문사양.xlsx
+++ b/NICEDesign/AngaraA_개발설계서_05_AOC통신AP_전문사양.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="12150" windowHeight="7710" tabRatio="767" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="12150" windowHeight="7710" tabRatio="767" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="6" r:id="rId1"/>
@@ -3724,17 +3724,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3754,31 +3751,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3799,44 +3790,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3847,14 +3832,59 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3880,56 +3910,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3944,18 +3944,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3973,17 +3961,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3994,13 +3988,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4015,6 +4006,9 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4024,16 +4018,22 @@
     <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4045,13 +4045,13 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11537,8 +11537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -11554,37 +11554,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
       <c r="I1" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="180" t="s">
         <v>632</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="177"/>
       <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
@@ -11605,10 +11605,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="182"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
@@ -11740,11 +11740,11 @@
       <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="185"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="56"/>
       <c r="E11" s="57"/>
       <c r="F11" s="58">
@@ -11755,22 +11755,22 @@
       <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="184" t="s">
         <v>474</v>
       </c>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="178"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="186"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="180"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="34" t="s">
         <v>2</v>
       </c>
@@ -11791,10 +11791,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="181" t="s">
+      <c r="A14" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="182"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="37" t="s">
         <v>8</v>
       </c>
@@ -11808,11 +11808,11 @@
       <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="184"/>
-      <c r="C15" s="185"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="56"/>
       <c r="E15" s="57"/>
       <c r="F15" s="58">
@@ -11823,37 +11823,37 @@
       <c r="H15" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="171" t="s">
+      <c r="A18" s="174" t="s">
         <v>635</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
       <c r="I18" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="186" t="s">
+      <c r="A19" s="180" t="s">
         <v>637</v>
       </c>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="180"/>
+      <c r="B20" s="177"/>
       <c r="C20" s="34" t="s">
         <v>2</v>
       </c>
@@ -11874,10 +11874,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="181" t="s">
+      <c r="A21" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="182"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="37" t="s">
         <v>8</v>
       </c>
@@ -11911,11 +11911,11 @@
       <c r="H22" s="67"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="184"/>
-      <c r="C23" s="185"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="56"/>
       <c r="E23" s="57"/>
       <c r="F23" s="58">
@@ -11926,25 +11926,25 @@
       <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="184" t="s">
         <v>639</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="178"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
       <c r="I24" s="70" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="180"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="34" t="s">
         <v>2</v>
       </c>
@@ -11965,10 +11965,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="182"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="37" t="s">
         <v>8</v>
       </c>
@@ -11982,7 +11982,7 @@
       <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="193" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="37" t="s">
@@ -12004,7 +12004,7 @@
       <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="188"/>
+      <c r="A28" s="194"/>
       <c r="B28" s="37" t="s">
         <v>29</v>
       </c>
@@ -12025,7 +12025,7 @@
       <c r="I28" s="69"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="188"/>
+      <c r="A29" s="194"/>
       <c r="B29" s="37" t="s">
         <v>32</v>
       </c>
@@ -12067,11 +12067,11 @@
       <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="183" t="s">
+      <c r="A31" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="184"/>
-      <c r="C31" s="185"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="183"/>
       <c r="D31" s="56"/>
       <c r="E31" s="57"/>
       <c r="F31" s="57">
@@ -12082,37 +12082,37 @@
       <c r="H31" s="59"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="171" t="s">
+      <c r="A34" s="174" t="s">
         <v>622</v>
       </c>
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
       <c r="I34" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="186" t="s">
+      <c r="A35" s="180" t="s">
         <v>460</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="179" t="s">
+      <c r="A36" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B36" s="180"/>
+      <c r="B36" s="177"/>
       <c r="C36" s="34" t="s">
         <v>166</v>
       </c>
@@ -12133,10 +12133,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="182"/>
+      <c r="B37" s="179"/>
       <c r="C37" s="37" t="s">
         <v>173</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A38" s="187" t="s">
+      <c r="A38" s="193" t="s">
         <v>160</v>
       </c>
       <c r="B38" s="37" t="s">
@@ -12172,7 +12172,7 @@
       <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="188"/>
+      <c r="A39" s="194"/>
       <c r="B39" s="37" t="s">
         <v>453</v>
       </c>
@@ -12196,7 +12196,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="188"/>
+      <c r="A40" s="194"/>
       <c r="B40" s="37" t="s">
         <v>259</v>
       </c>
@@ -12216,7 +12216,7 @@
       <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="188"/>
+      <c r="A41" s="194"/>
       <c r="B41" s="37" t="s">
         <v>29</v>
       </c>
@@ -12238,7 +12238,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="189"/>
+      <c r="A42" s="195"/>
       <c r="B42" s="37" t="s">
         <v>32</v>
       </c>
@@ -12260,11 +12260,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="185"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="183"/>
       <c r="D43" s="56"/>
       <c r="E43" s="57"/>
       <c r="F43" s="57">
@@ -12275,22 +12275,22 @@
       <c r="H43" s="59"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="176" t="s">
+      <c r="A44" s="184" t="s">
         <v>626</v>
       </c>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="177"/>
-      <c r="F44" s="177"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="178"/>
+      <c r="B44" s="185"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="185"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="186"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="179" t="s">
+      <c r="A45" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="180"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="34" t="s">
         <v>166</v>
       </c>
@@ -12311,10 +12311,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="181" t="s">
+      <c r="A46" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="182"/>
+      <c r="B46" s="179"/>
       <c r="C46" s="37" t="s">
         <v>173</v>
       </c>
@@ -12328,7 +12328,7 @@
       <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A47" s="187" t="s">
+      <c r="A47" s="193" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="37" t="s">
@@ -12352,7 +12352,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="188"/>
+      <c r="A48" s="194"/>
       <c r="B48" s="37" t="s">
         <v>453</v>
       </c>
@@ -12376,7 +12376,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="188"/>
+      <c r="A49" s="194"/>
       <c r="B49" s="37" t="s">
         <v>259</v>
       </c>
@@ -12396,7 +12396,7 @@
       <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="188"/>
+      <c r="A50" s="194"/>
       <c r="B50" s="37" t="s">
         <v>189</v>
       </c>
@@ -12414,7 +12414,7 @@
       <c r="H50" s="37"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="189"/>
+      <c r="A51" s="195"/>
       <c r="B51" s="37" t="s">
         <v>190</v>
       </c>
@@ -12454,11 +12454,11 @@
       <c r="H52" s="37"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="183" t="s">
+      <c r="A53" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="184"/>
-      <c r="C53" s="185"/>
+      <c r="B53" s="182"/>
+      <c r="C53" s="183"/>
       <c r="D53" s="56"/>
       <c r="E53" s="57"/>
       <c r="F53" s="57">
@@ -12469,37 +12469,37 @@
       <c r="H53" s="59"/>
     </row>
     <row r="56" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="171" t="s">
+      <c r="A56" s="174" t="s">
         <v>644</v>
       </c>
-      <c r="B56" s="171"/>
-      <c r="C56" s="171"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
-      <c r="G56" s="171"/>
-      <c r="H56" s="171"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="174"/>
+      <c r="D56" s="174"/>
+      <c r="E56" s="174"/>
+      <c r="F56" s="174"/>
+      <c r="G56" s="174"/>
+      <c r="H56" s="174"/>
       <c r="I56" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="186" t="s">
+      <c r="A57" s="180" t="s">
         <v>643</v>
       </c>
-      <c r="B57" s="186"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
+      <c r="B57" s="180"/>
+      <c r="C57" s="180"/>
+      <c r="D57" s="180"/>
+      <c r="E57" s="180"/>
+      <c r="F57" s="180"/>
+      <c r="G57" s="180"/>
+      <c r="H57" s="180"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="179" t="s">
+      <c r="A58" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="180"/>
+      <c r="B58" s="177"/>
       <c r="C58" s="34" t="s">
         <v>131</v>
       </c>
@@ -12520,10 +12520,10 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="181" t="s">
+      <c r="A59" s="178" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="182"/>
+      <c r="B59" s="179"/>
       <c r="C59" s="37" t="s">
         <v>136</v>
       </c>
@@ -12537,7 +12537,7 @@
       <c r="H59" s="37"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="187" t="s">
+      <c r="A60" s="193" t="s">
         <v>137</v>
       </c>
       <c r="B60" s="37" t="s">
@@ -12563,7 +12563,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="188"/>
+      <c r="A61" s="194"/>
       <c r="B61" s="37" t="s">
         <v>139</v>
       </c>
@@ -12587,7 +12587,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="188"/>
+      <c r="A62" s="194"/>
       <c r="B62" s="37" t="s">
         <v>225</v>
       </c>
@@ -12629,11 +12629,11 @@
       <c r="H63" s="37"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="183" t="s">
+      <c r="A64" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="184"/>
-      <c r="C64" s="185"/>
+      <c r="B64" s="182"/>
+      <c r="C64" s="183"/>
       <c r="D64" s="56"/>
       <c r="E64" s="57"/>
       <c r="F64" s="58">
@@ -12644,22 +12644,22 @@
       <c r="H64" s="59"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="176" t="s">
+      <c r="A65" s="184" t="s">
         <v>475</v>
       </c>
-      <c r="B65" s="177"/>
-      <c r="C65" s="177"/>
-      <c r="D65" s="177"/>
-      <c r="E65" s="177"/>
-      <c r="F65" s="177"/>
-      <c r="G65" s="177"/>
-      <c r="H65" s="178"/>
+      <c r="B65" s="185"/>
+      <c r="C65" s="185"/>
+      <c r="D65" s="185"/>
+      <c r="E65" s="185"/>
+      <c r="F65" s="185"/>
+      <c r="G65" s="185"/>
+      <c r="H65" s="186"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="179" t="s">
+      <c r="A66" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="180"/>
+      <c r="B66" s="177"/>
       <c r="C66" s="34" t="s">
         <v>131</v>
       </c>
@@ -12680,10 +12680,10 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="181" t="s">
+      <c r="A67" s="178" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="182"/>
+      <c r="B67" s="179"/>
       <c r="C67" s="37" t="s">
         <v>136</v>
       </c>
@@ -12697,11 +12697,11 @@
       <c r="H67" s="37"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="183" t="s">
+      <c r="A68" s="181" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="184"/>
-      <c r="C68" s="185"/>
+      <c r="B68" s="182"/>
+      <c r="C68" s="183"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
       <c r="F68" s="58">
@@ -12712,37 +12712,37 @@
       <c r="H68" s="59"/>
     </row>
     <row r="71" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="171" t="s">
+      <c r="A71" s="174" t="s">
         <v>646</v>
       </c>
-      <c r="B71" s="171"/>
-      <c r="C71" s="171"/>
-      <c r="D71" s="171"/>
-      <c r="E71" s="171"/>
-      <c r="F71" s="171"/>
-      <c r="G71" s="171"/>
-      <c r="H71" s="171"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="174"/>
+      <c r="D71" s="174"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="174"/>
+      <c r="H71" s="174"/>
       <c r="I71" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="186" t="s">
+      <c r="A72" s="180" t="s">
         <v>647</v>
       </c>
-      <c r="B72" s="186"/>
-      <c r="C72" s="186"/>
-      <c r="D72" s="186"/>
-      <c r="E72" s="186"/>
-      <c r="F72" s="186"/>
-      <c r="G72" s="186"/>
-      <c r="H72" s="186"/>
+      <c r="B72" s="180"/>
+      <c r="C72" s="180"/>
+      <c r="D72" s="180"/>
+      <c r="E72" s="180"/>
+      <c r="F72" s="180"/>
+      <c r="G72" s="180"/>
+      <c r="H72" s="180"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="179" t="s">
+      <c r="A73" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="180"/>
+      <c r="B73" s="177"/>
       <c r="C73" s="34" t="s">
         <v>195</v>
       </c>
@@ -12763,10 +12763,10 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="181" t="s">
+      <c r="A74" s="178" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="182"/>
+      <c r="B74" s="179"/>
       <c r="C74" s="37" t="s">
         <v>202</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="187" t="s">
+      <c r="A75" s="193" t="s">
         <v>204</v>
       </c>
       <c r="B75" s="37" t="s">
@@ -12800,7 +12800,7 @@
       <c r="H75" s="37"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="188"/>
+      <c r="A76" s="194"/>
       <c r="B76" s="37" t="s">
         <v>206</v>
       </c>
@@ -12818,11 +12818,11 @@
       <c r="H76" s="37"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="183" t="s">
+      <c r="A77" s="181" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="184"/>
-      <c r="C77" s="185"/>
+      <c r="B77" s="182"/>
+      <c r="C77" s="183"/>
       <c r="D77" s="56"/>
       <c r="E77" s="57"/>
       <c r="F77" s="57">
@@ -12833,22 +12833,22 @@
       <c r="H77" s="59"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="176" t="s">
+      <c r="A78" s="184" t="s">
         <v>457</v>
       </c>
-      <c r="B78" s="177"/>
-      <c r="C78" s="177"/>
-      <c r="D78" s="177"/>
-      <c r="E78" s="177"/>
-      <c r="F78" s="177"/>
-      <c r="G78" s="177"/>
-      <c r="H78" s="178"/>
+      <c r="B78" s="185"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="185"/>
+      <c r="E78" s="185"/>
+      <c r="F78" s="185"/>
+      <c r="G78" s="185"/>
+      <c r="H78" s="186"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="179" t="s">
+      <c r="A79" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="B79" s="180"/>
+      <c r="B79" s="177"/>
       <c r="C79" s="34" t="s">
         <v>195</v>
       </c>
@@ -12869,10 +12869,10 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="181" t="s">
+      <c r="A80" s="178" t="s">
         <v>201</v>
       </c>
-      <c r="B80" s="182"/>
+      <c r="B80" s="179"/>
       <c r="C80" s="37" t="s">
         <v>202</v>
       </c>
@@ -12886,7 +12886,7 @@
       <c r="H80" s="37"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="187" t="s">
+      <c r="A81" s="193" t="s">
         <v>204</v>
       </c>
       <c r="B81" s="37" t="s">
@@ -12906,7 +12906,7 @@
       <c r="H81" s="37"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="188"/>
+      <c r="A82" s="194"/>
       <c r="B82" s="37" t="s">
         <v>29</v>
       </c>
@@ -12924,7 +12924,7 @@
       <c r="H82" s="37"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="189"/>
+      <c r="A83" s="195"/>
       <c r="B83" s="37" t="s">
         <v>207</v>
       </c>
@@ -12964,11 +12964,11 @@
       <c r="H84" s="37"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="181" t="s">
         <v>203</v>
       </c>
-      <c r="B85" s="184"/>
-      <c r="C85" s="185"/>
+      <c r="B85" s="182"/>
+      <c r="C85" s="183"/>
       <c r="D85" s="56"/>
       <c r="E85" s="57"/>
       <c r="F85" s="57">
@@ -12979,37 +12979,37 @@
       <c r="H85" s="59"/>
     </row>
     <row r="88" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="171" t="s">
+      <c r="A88" s="174" t="s">
         <v>544</v>
       </c>
-      <c r="B88" s="171"/>
-      <c r="C88" s="171"/>
-      <c r="D88" s="171"/>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
-      <c r="G88" s="171"/>
-      <c r="H88" s="171"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="174"/>
+      <c r="E88" s="174"/>
+      <c r="F88" s="174"/>
+      <c r="G88" s="174"/>
+      <c r="H88" s="174"/>
       <c r="I88" s="25" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="186" t="s">
+      <c r="A89" s="180" t="s">
         <v>648</v>
       </c>
-      <c r="B89" s="186"/>
-      <c r="C89" s="186"/>
-      <c r="D89" s="186"/>
-      <c r="E89" s="186"/>
-      <c r="F89" s="186"/>
-      <c r="G89" s="186"/>
-      <c r="H89" s="186"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="180"/>
+      <c r="D89" s="180"/>
+      <c r="E89" s="180"/>
+      <c r="F89" s="180"/>
+      <c r="G89" s="180"/>
+      <c r="H89" s="180"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="179" t="s">
+      <c r="A90" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="180"/>
+      <c r="B90" s="177"/>
       <c r="C90" s="34" t="s">
         <v>166</v>
       </c>
@@ -13030,10 +13030,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="181" t="s">
+      <c r="A91" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="182"/>
+      <c r="B91" s="179"/>
       <c r="C91" s="37" t="s">
         <v>173</v>
       </c>
@@ -13051,7 +13051,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="187" t="s">
+      <c r="A92" s="193" t="s">
         <v>160</v>
       </c>
       <c r="B92" s="37" t="s">
@@ -13071,7 +13071,7 @@
       <c r="H92" s="37"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="188"/>
+      <c r="A93" s="194"/>
       <c r="B93" s="37" t="s">
         <v>29</v>
       </c>
@@ -13089,7 +13089,7 @@
       <c r="H93" s="37"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="188"/>
+      <c r="A94" s="194"/>
       <c r="B94" s="37" t="s">
         <v>32</v>
       </c>
@@ -13127,11 +13127,11 @@
       <c r="H95" s="37"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="183" t="s">
+      <c r="A96" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B96" s="184"/>
-      <c r="C96" s="185"/>
+      <c r="B96" s="182"/>
+      <c r="C96" s="183"/>
       <c r="D96" s="56"/>
       <c r="E96" s="57"/>
       <c r="F96" s="57">
@@ -13142,22 +13142,22 @@
       <c r="H96" s="59"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="176" t="s">
+      <c r="A97" s="184" t="s">
         <v>458</v>
       </c>
-      <c r="B97" s="177"/>
-      <c r="C97" s="177"/>
-      <c r="D97" s="177"/>
-      <c r="E97" s="177"/>
-      <c r="F97" s="177"/>
-      <c r="G97" s="177"/>
-      <c r="H97" s="178"/>
+      <c r="B97" s="185"/>
+      <c r="C97" s="185"/>
+      <c r="D97" s="185"/>
+      <c r="E97" s="185"/>
+      <c r="F97" s="185"/>
+      <c r="G97" s="185"/>
+      <c r="H97" s="186"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="179" t="s">
+      <c r="A98" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="180"/>
+      <c r="B98" s="177"/>
       <c r="C98" s="34" t="s">
         <v>195</v>
       </c>
@@ -13178,10 +13178,10 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="181" t="s">
+      <c r="A99" s="178" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="182"/>
+      <c r="B99" s="179"/>
       <c r="C99" s="37" t="s">
         <v>202</v>
       </c>
@@ -13195,11 +13195,11 @@
       <c r="H99" s="37"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="183" t="s">
+      <c r="A100" s="181" t="s">
         <v>203</v>
       </c>
-      <c r="B100" s="184"/>
-      <c r="C100" s="185"/>
+      <c r="B100" s="182"/>
+      <c r="C100" s="183"/>
       <c r="D100" s="56"/>
       <c r="E100" s="57"/>
       <c r="F100" s="58">
@@ -13211,26 +13211,32 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:A83"/>
     <mergeCell ref="A89:H89"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A47:A51"/>
@@ -13247,32 +13253,26 @@
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13460,43 +13460,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
       <c r="L4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="2"/>
@@ -13509,12 +13509,12 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="93" t="s">
+      <c r="L5" s="92" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -13525,10 +13525,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="94"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -13539,10 +13539,10 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="94"/>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -13553,10 +13553,10 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="94"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -13567,10 +13567,10 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="94"/>
+      <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -13581,10 +13581,10 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="94"/>
+      <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -13595,10 +13595,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="94"/>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -13609,10 +13609,10 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="94"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -13623,10 +13623,10 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="95"/>
+      <c r="L13" s="94"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="2"/>
@@ -13639,12 +13639,12 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="93" t="s">
+      <c r="L14" s="92" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -13655,10 +13655,10 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="94"/>
+      <c r="L15" s="93"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -13669,10 +13669,10 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="94"/>
+      <c r="L16" s="93"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -13683,10 +13683,10 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="94"/>
+      <c r="L17" s="93"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -13697,10 +13697,10 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="94"/>
+      <c r="L18" s="93"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -13711,10 +13711,10 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="94"/>
+      <c r="L19" s="93"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -13725,10 +13725,10 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="94"/>
+      <c r="L20" s="93"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -13739,10 +13739,10 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="94"/>
+      <c r="L21" s="93"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -13753,10 +13753,10 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="94"/>
+      <c r="L22" s="93"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -13767,10 +13767,10 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="94"/>
+      <c r="L23" s="93"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -13781,10 +13781,10 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="95"/>
+      <c r="L24" s="94"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="89" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="14"/>
@@ -13797,12 +13797,12 @@
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="16"/>
-      <c r="L25" s="93" t="s">
+      <c r="L25" s="92" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -13813,10 +13813,10 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="94"/>
+      <c r="L26" s="93"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -13827,10 +13827,10 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="94"/>
+      <c r="L27" s="93"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -13841,10 +13841,10 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="94"/>
+      <c r="L28" s="93"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -13855,10 +13855,10 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="94"/>
+      <c r="L29" s="93"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -13869,10 +13869,10 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="94"/>
+      <c r="L30" s="93"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -13883,10 +13883,10 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="94"/>
+      <c r="L31" s="93"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -13897,10 +13897,10 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="94"/>
+      <c r="L32" s="93"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -13911,10 +13911,10 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="94"/>
+      <c r="L33" s="93"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -13925,10 +13925,10 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="94"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -13939,10 +13939,10 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="95"/>
+      <c r="L35" s="94"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="89" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="14"/>
@@ -13955,12 +13955,12 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="96" t="s">
+      <c r="L36" s="86" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -13971,10 +13971,10 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="97"/>
+      <c r="L37" s="87"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -13985,10 +13985,10 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="97"/>
+      <c r="L38" s="87"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -13999,10 +13999,10 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="97"/>
+      <c r="L39" s="87"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -14013,10 +14013,10 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="97"/>
+      <c r="L40" s="87"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -14027,10 +14027,10 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="97"/>
+      <c r="L41" s="87"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -14041,10 +14041,10 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="97"/>
+      <c r="L42" s="87"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -14055,10 +14055,10 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="97"/>
+      <c r="L43" s="87"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -14069,10 +14069,10 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="97"/>
+      <c r="L44" s="87"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -14083,10 +14083,10 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="97"/>
+      <c r="L45" s="87"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
+      <c r="A46" s="90"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -14097,10 +14097,10 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="97"/>
+      <c r="L46" s="87"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
+      <c r="A47" s="90"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -14111,10 +14111,10 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="97"/>
+      <c r="L47" s="87"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -14125,10 +14125,10 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="97"/>
+      <c r="L48" s="87"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="92"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -14139,10 +14139,10 @@
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
-      <c r="L49" s="98"/>
+      <c r="L49" s="88"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="89" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="14"/>
@@ -14155,12 +14155,12 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="16"/>
-      <c r="L50" s="93" t="s">
+      <c r="L50" s="92" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -14171,10 +14171,10 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="94"/>
+      <c r="L51" s="93"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -14185,10 +14185,10 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="94"/>
+      <c r="L52" s="93"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
+      <c r="A53" s="90"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -14199,10 +14199,10 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="94"/>
+      <c r="L53" s="93"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
+      <c r="A54" s="90"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -14213,10 +14213,10 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="94"/>
+      <c r="L54" s="93"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
+      <c r="A55" s="90"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -14227,10 +14227,10 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="94"/>
+      <c r="L55" s="93"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -14241,10 +14241,10 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="94"/>
+      <c r="L56" s="93"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
+      <c r="A57" s="90"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -14255,10 +14255,10 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="94"/>
+      <c r="L57" s="93"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
+      <c r="A58" s="90"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -14269,10 +14269,10 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="94"/>
+      <c r="L58" s="93"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -14283,10 +14283,10 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="94"/>
+      <c r="L59" s="93"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -14297,10 +14297,10 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="94"/>
+      <c r="L60" s="93"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -14311,10 +14311,10 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="94"/>
+      <c r="L61" s="93"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -14325,10 +14325,10 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="94"/>
+      <c r="L62" s="93"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -14339,10 +14339,10 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="94"/>
+      <c r="L63" s="93"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -14353,10 +14353,10 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="94"/>
+      <c r="L64" s="93"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -14367,10 +14367,10 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="94"/>
+      <c r="L65" s="93"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -14381,10 +14381,10 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="94"/>
+      <c r="L66" s="93"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
+      <c r="A67" s="90"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -14395,10 +14395,10 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="94"/>
+      <c r="L67" s="93"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
+      <c r="A68" s="90"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -14409,10 +14409,10 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="94"/>
+      <c r="L68" s="93"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -14423,10 +14423,10 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="94"/>
+      <c r="L69" s="93"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -14437,10 +14437,10 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="94"/>
+      <c r="L70" s="93"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -14451,10 +14451,10 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="94"/>
+      <c r="L71" s="93"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -14465,10 +14465,10 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="94"/>
+      <c r="L72" s="93"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="91"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -14479,10 +14479,10 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="94"/>
+      <c r="L73" s="93"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="91"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -14493,10 +14493,10 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="94"/>
+      <c r="L74" s="93"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -14507,10 +14507,10 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="94"/>
+      <c r="L75" s="93"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="91"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -14521,10 +14521,10 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="94"/>
+      <c r="L76" s="93"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="92"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -14535,10 +14535,10 @@
       <c r="I77" s="18"/>
       <c r="J77" s="18"/>
       <c r="K77" s="19"/>
-      <c r="L77" s="95"/>
+      <c r="L77" s="94"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="89" t="s">
         <v>63</v>
       </c>
       <c r="B78" s="14"/>
@@ -14551,12 +14551,12 @@
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
       <c r="K78" s="16"/>
-      <c r="L78" s="93" t="s">
+      <c r="L78" s="92" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="91"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -14567,10 +14567,10 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="94"/>
+      <c r="L79" s="93"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="91"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -14581,10 +14581,10 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="94"/>
+      <c r="L80" s="93"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -14595,10 +14595,10 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="94"/>
+      <c r="L81" s="93"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="91"/>
+      <c r="A82" s="90"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -14609,10 +14609,10 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="94"/>
+      <c r="L82" s="93"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="91"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -14623,10 +14623,10 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="94"/>
+      <c r="L83" s="93"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="91"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -14637,10 +14637,10 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="94"/>
+      <c r="L84" s="93"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="91"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -14651,10 +14651,10 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="94"/>
+      <c r="L85" s="93"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="91"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -14665,10 +14665,10 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="94"/>
+      <c r="L86" s="93"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="91"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -14679,10 +14679,10 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="94"/>
+      <c r="L87" s="93"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="91"/>
+      <c r="A88" s="90"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -14693,10 +14693,10 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="94"/>
+      <c r="L88" s="93"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="91"/>
+      <c r="A89" s="90"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -14707,10 +14707,10 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="94"/>
+      <c r="L89" s="93"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="91"/>
+      <c r="A90" s="90"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -14721,10 +14721,10 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="94"/>
+      <c r="L90" s="93"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="91"/>
+      <c r="A91" s="90"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -14735,10 +14735,10 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="94"/>
+      <c r="L91" s="93"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="91"/>
+      <c r="A92" s="90"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -14749,10 +14749,10 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="94"/>
+      <c r="L92" s="93"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="91"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -14763,10 +14763,10 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="94"/>
+      <c r="L93" s="93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="91"/>
+      <c r="A94" s="90"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -14777,10 +14777,10 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="94"/>
+      <c r="L94" s="93"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="91"/>
+      <c r="A95" s="90"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -14791,10 +14791,10 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="94"/>
+      <c r="L95" s="93"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="91"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -14805,10 +14805,10 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="94"/>
+      <c r="L96" s="93"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="91"/>
+      <c r="A97" s="90"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -14819,10 +14819,10 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="94"/>
+      <c r="L97" s="93"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="91"/>
+      <c r="A98" s="90"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -14833,10 +14833,10 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="94"/>
+      <c r="L98" s="93"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="91"/>
+      <c r="A99" s="90"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -14847,10 +14847,10 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="94"/>
+      <c r="L99" s="93"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="91"/>
+      <c r="A100" s="90"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -14861,10 +14861,10 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="94"/>
+      <c r="L100" s="93"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="91"/>
+      <c r="A101" s="90"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -14875,10 +14875,10 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="94"/>
+      <c r="L101" s="93"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="91"/>
+      <c r="A102" s="90"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -14889,10 +14889,10 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="94"/>
+      <c r="L102" s="93"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="91"/>
+      <c r="A103" s="90"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -14903,10 +14903,10 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="94"/>
+      <c r="L103" s="93"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="91"/>
+      <c r="A104" s="90"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -14917,10 +14917,10 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="94"/>
+      <c r="L104" s="93"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="92"/>
+      <c r="A105" s="91"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="18"/>
@@ -14931,10 +14931,10 @@
       <c r="I105" s="18"/>
       <c r="J105" s="18"/>
       <c r="K105" s="19"/>
-      <c r="L105" s="95"/>
+      <c r="L105" s="94"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="90" t="s">
+      <c r="A106" s="89" t="s">
         <v>65</v>
       </c>
       <c r="B106" s="14"/>
@@ -14947,12 +14947,12 @@
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
       <c r="K106" s="16"/>
-      <c r="L106" s="93" t="s">
+      <c r="L106" s="92" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="91"/>
+      <c r="A107" s="90"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -14963,10 +14963,10 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="94"/>
+      <c r="L107" s="93"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="91"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -14977,10 +14977,10 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="94"/>
+      <c r="L108" s="93"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="91"/>
+      <c r="A109" s="90"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -14991,10 +14991,10 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="94"/>
+      <c r="L109" s="93"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="91"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -15005,10 +15005,10 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="94"/>
+      <c r="L110" s="93"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="91"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -15019,10 +15019,10 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="94"/>
+      <c r="L111" s="93"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="91"/>
+      <c r="A112" s="90"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -15033,10 +15033,10 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="94"/>
+      <c r="L112" s="93"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="91"/>
+      <c r="A113" s="90"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -15047,10 +15047,10 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-      <c r="L113" s="94"/>
+      <c r="L113" s="93"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="91"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -15061,10 +15061,10 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-      <c r="L114" s="94"/>
+      <c r="L114" s="93"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="91"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -15075,10 +15075,10 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-      <c r="L115" s="94"/>
+      <c r="L115" s="93"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="91"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -15089,10 +15089,10 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
-      <c r="L116" s="94"/>
+      <c r="L116" s="93"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="91"/>
+      <c r="A117" s="90"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -15103,10 +15103,10 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
-      <c r="L117" s="94"/>
+      <c r="L117" s="93"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="91"/>
+      <c r="A118" s="90"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -15117,10 +15117,10 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
-      <c r="L118" s="94"/>
+      <c r="L118" s="93"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="91"/>
+      <c r="A119" s="90"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -15131,10 +15131,10 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="94"/>
+      <c r="L119" s="93"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="91"/>
+      <c r="A120" s="90"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -15145,10 +15145,10 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="94"/>
+      <c r="L120" s="93"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="91"/>
+      <c r="A121" s="90"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -15159,10 +15159,10 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
-      <c r="L121" s="94"/>
+      <c r="L121" s="93"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="91"/>
+      <c r="A122" s="90"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -15173,10 +15173,10 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
-      <c r="L122" s="94"/>
+      <c r="L122" s="93"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="91"/>
+      <c r="A123" s="90"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -15187,10 +15187,10 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
-      <c r="L123" s="94"/>
+      <c r="L123" s="93"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="91"/>
+      <c r="A124" s="90"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -15201,10 +15201,10 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="94"/>
+      <c r="L124" s="93"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="91"/>
+      <c r="A125" s="90"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -15215,10 +15215,10 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="94"/>
+      <c r="L125" s="93"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="91"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -15229,10 +15229,10 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="94"/>
+      <c r="L126" s="93"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="91"/>
+      <c r="A127" s="90"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -15243,10 +15243,10 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
-      <c r="L127" s="94"/>
+      <c r="L127" s="93"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="91"/>
+      <c r="A128" s="90"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -15257,10 +15257,10 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
-      <c r="L128" s="94"/>
+      <c r="L128" s="93"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="91"/>
+      <c r="A129" s="90"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -15271,10 +15271,10 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
-      <c r="L129" s="94"/>
+      <c r="L129" s="93"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="91"/>
+      <c r="A130" s="90"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -15285,10 +15285,10 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
-      <c r="L130" s="94"/>
+      <c r="L130" s="93"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="91"/>
+      <c r="A131" s="90"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -15299,10 +15299,10 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
-      <c r="L131" s="94"/>
+      <c r="L131" s="93"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="91"/>
+      <c r="A132" s="90"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -15313,10 +15313,10 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
-      <c r="L132" s="94"/>
+      <c r="L132" s="93"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="91"/>
+      <c r="A133" s="90"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -15327,10 +15327,10 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
-      <c r="L133" s="94"/>
+      <c r="L133" s="93"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="91"/>
+      <c r="A134" s="90"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -15341,10 +15341,10 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
-      <c r="L134" s="94"/>
+      <c r="L134" s="93"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="91"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -15355,10 +15355,10 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
-      <c r="L135" s="94"/>
+      <c r="L135" s="93"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="91"/>
+      <c r="A136" s="90"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -15369,10 +15369,10 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
-      <c r="L136" s="94"/>
+      <c r="L136" s="93"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="91"/>
+      <c r="A137" s="90"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -15383,10 +15383,10 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
-      <c r="L137" s="94"/>
+      <c r="L137" s="93"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="91"/>
+      <c r="A138" s="90"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -15397,10 +15397,10 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
-      <c r="L138" s="94"/>
+      <c r="L138" s="93"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="92"/>
+      <c r="A139" s="91"/>
       <c r="B139" s="17"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
@@ -15411,10 +15411,18 @@
       <c r="I139" s="18"/>
       <c r="J139" s="18"/>
       <c r="K139" s="19"/>
-      <c r="L139" s="95"/>
+      <c r="L139" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="L25:L35"/>
+    <mergeCell ref="L5:L13"/>
+    <mergeCell ref="L14:L24"/>
     <mergeCell ref="L36:L49"/>
     <mergeCell ref="A78:A105"/>
     <mergeCell ref="L78:L105"/>
@@ -15423,14 +15431,6 @@
     <mergeCell ref="A50:A77"/>
     <mergeCell ref="L50:L77"/>
     <mergeCell ref="A36:A49"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A25:A35"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="L25:L35"/>
-    <mergeCell ref="L5:L13"/>
-    <mergeCell ref="L14:L24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15464,174 +15464,174 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="86" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="86" t="s">
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="86" t="s">
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="96"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="88"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="97"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="99" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111">
         <v>4</v>
       </c>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="99" t="s">
+      <c r="L6" s="112"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="101"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="108"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="110"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="99" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102">
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="111">
         <v>162</v>
       </c>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="99" t="s">
+      <c r="L7" s="112"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="101"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="109"/>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="110"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="99" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102" t="s">
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="103"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="99" t="s">
+      <c r="L8" s="112"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="100"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="101"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="109"/>
+      <c r="AH8" s="110"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -15644,66 +15644,66 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="86" t="s">
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="88"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="97"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="104"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="113"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="104"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="113"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -15726,433 +15726,433 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B25" s="112" t="s">
+      <c r="B25" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112" t="s">
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112" t="s">
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="112"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="112"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="101"/>
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="101"/>
+      <c r="AF25" s="101"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="113">
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="99">
         <v>0</v>
       </c>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="105" t="s">
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="107"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="103"/>
+      <c r="AG26" s="103"/>
+      <c r="AH26" s="104"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="113">
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="99">
         <v>1</v>
       </c>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="110"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="107"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="113">
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="99">
         <v>0</v>
       </c>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="111" t="s">
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="111"/>
-      <c r="AB28" s="111"/>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="111"/>
-      <c r="AE28" s="111"/>
-      <c r="AF28" s="111"/>
-      <c r="AG28" s="111"/>
-      <c r="AH28" s="111"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="113">
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="99">
         <v>1</v>
       </c>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="111" t="s">
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
-      <c r="AB29" s="111"/>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="111"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="111"/>
-      <c r="AH29" s="111"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="100"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="113">
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="99">
         <v>2</v>
       </c>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="111" t="s">
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
-      <c r="AB30" s="111"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="111"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="111"/>
-      <c r="AH30" s="111"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="113">
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="99">
         <v>3</v>
       </c>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="111"/>
-      <c r="AH31" s="111"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="113">
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="99">
         <v>0</v>
       </c>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="111" t="s">
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="111"/>
-      <c r="AF32" s="111"/>
-      <c r="AG32" s="111"/>
-      <c r="AH32" s="111"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="113">
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="99">
         <v>1</v>
       </c>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-      <c r="L33" s="111" t="s">
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="111"/>
-      <c r="AC33" s="111"/>
-      <c r="AD33" s="111"/>
-      <c r="AE33" s="111"/>
-      <c r="AF33" s="111"/>
-      <c r="AG33" s="111"/>
-      <c r="AH33" s="111"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="100"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="113">
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="99">
         <v>2</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
-      <c r="W34" s="111"/>
-      <c r="X34" s="111"/>
-      <c r="Y34" s="111"/>
-      <c r="Z34" s="111"/>
-      <c r="AA34" s="111"/>
-      <c r="AB34" s="111"/>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="111"/>
-      <c r="AE34" s="111"/>
-      <c r="AF34" s="111"/>
-      <c r="AG34" s="111"/>
-      <c r="AH34" s="111"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="100"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="113">
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="99">
         <v>3</v>
       </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="111"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="111"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="111"/>
-      <c r="AH35" s="111"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="100"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="100"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="100"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
@@ -16369,12 +16369,30 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:AH32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L30:AH31"/>
-    <mergeCell ref="L33:AH35"/>
-    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="N6:AD6"/>
+    <mergeCell ref="N7:AD7"/>
+    <mergeCell ref="N8:AD8"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="F16:R16"/>
     <mergeCell ref="B28:G31"/>
     <mergeCell ref="B32:G35"/>
     <mergeCell ref="H25:K25"/>
@@ -16391,30 +16409,12 @@
     <mergeCell ref="L26:AH27"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="H31:K31"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="AE7:AH7"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N5:AD5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="N6:AD6"/>
-    <mergeCell ref="N7:AD7"/>
-    <mergeCell ref="N8:AD8"/>
-    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:AH32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L30:AH31"/>
+    <mergeCell ref="L33:AH35"/>
+    <mergeCell ref="H35:K35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -16445,15 +16445,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -16479,10 +16479,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="119" t="s">
         <v>710</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="138" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -16491,10 +16491,10 @@
       <c r="D4" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="124" t="s">
         <v>679</v>
       </c>
-      <c r="F4" s="150" t="s">
+      <c r="F4" s="116" t="s">
         <v>686</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -16502,21 +16502,21 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="78"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="8" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="120"/>
+      <c r="B6" s="138" t="s">
         <v>249</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -16525,10 +16525,10 @@
       <c r="D6" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="146" t="s">
         <v>697</v>
       </c>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="116" t="s">
         <v>721</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -16536,23 +16536,23 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="120"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="149"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="8" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="138" t="s">
         <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -16561,10 +16561,10 @@
       <c r="D8" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="136" t="s">
+      <c r="E8" s="146" t="s">
         <v>696</v>
       </c>
-      <c r="F8" s="150" t="s">
+      <c r="F8" s="116" t="s">
         <v>721</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -16572,23 +16572,23 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="149"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="115"/>
       <c r="G9" s="8" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="134" t="s">
+      <c r="A10" s="120"/>
+      <c r="B10" s="144" t="s">
         <v>250</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -16602,8 +16602,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="135"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="30" t="s">
         <v>252</v>
       </c>
@@ -16615,8 +16615,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="134" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="144" t="s">
         <v>253</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -16630,8 +16630,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
@@ -16643,8 +16643,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="130" t="s">
+      <c r="A14" s="120"/>
+      <c r="B14" s="140" t="s">
         <v>124</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -16658,8 +16658,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="131"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
@@ -16671,8 +16671,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="130" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="140" t="s">
         <v>123</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -16686,8 +16686,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
-      <c r="B17" s="131"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
@@ -16699,8 +16699,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="130" t="s">
+      <c r="A18" s="120"/>
+      <c r="B18" s="140" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -16714,8 +16714,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="131"/>
+      <c r="A19" s="120"/>
+      <c r="B19" s="141"/>
       <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
@@ -16727,8 +16727,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="125"/>
-      <c r="B20" s="132" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="142" t="s">
         <v>726</v>
       </c>
       <c r="C20" s="32" t="s">
@@ -16737,10 +16737,10 @@
       <c r="D20" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="E20" s="136" t="s">
+      <c r="E20" s="146" t="s">
         <v>725</v>
       </c>
-      <c r="F20" s="148" t="s">
+      <c r="F20" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -16748,25 +16748,25 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="133"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="149"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="115"/>
       <c r="G21" s="8" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="138" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -16775,10 +16775,10 @@
       <c r="D22" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="E22" s="138" t="s">
+      <c r="E22" s="127" t="s">
         <v>680</v>
       </c>
-      <c r="F22" s="148" t="s">
+      <c r="F22" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -16786,23 +16786,23 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="125"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="149"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="8" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="125"/>
-      <c r="B24" s="116" t="s">
+      <c r="A24" s="120"/>
+      <c r="B24" s="138" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -16811,10 +16811,10 @@
       <c r="D24" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="138" t="s">
+      <c r="E24" s="127" t="s">
         <v>681</v>
       </c>
-      <c r="F24" s="148" t="s">
+      <c r="F24" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -16822,23 +16822,23 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="125"/>
-      <c r="B25" s="117"/>
+      <c r="A25" s="120"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="149"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="8" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="125"/>
-      <c r="B26" s="116" t="s">
+      <c r="A26" s="120"/>
+      <c r="B26" s="138" t="s">
         <v>125</v>
       </c>
       <c r="C26" s="32" t="s">
@@ -16847,10 +16847,10 @@
       <c r="D26" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E26" s="138" t="s">
+      <c r="E26" s="127" t="s">
         <v>687</v>
       </c>
-      <c r="F26" s="148" t="s">
+      <c r="F26" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -16858,23 +16858,23 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="125"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="149"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="8" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="125"/>
-      <c r="B28" s="151" t="s">
+      <c r="A28" s="120"/>
+      <c r="B28" s="125" t="s">
         <v>714</v>
       </c>
       <c r="C28" s="81" t="s">
@@ -16883,32 +16883,32 @@
       <c r="D28" s="82" t="s">
         <v>683</v>
       </c>
-      <c r="E28" s="118" t="s">
+      <c r="E28" s="124" t="s">
         <v>702</v>
       </c>
-      <c r="F28" s="150"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="125"/>
-      <c r="B29" s="152"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="81" t="s">
         <v>684</v>
       </c>
       <c r="D29" s="82" t="s">
         <v>685</v>
       </c>
-      <c r="E29" s="115"/>
-      <c r="F29" s="149"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="8" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="125"/>
-      <c r="B30" s="116" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="138" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="32" t="s">
@@ -16917,10 +16917,10 @@
       <c r="D30" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="E30" s="138" t="s">
+      <c r="E30" s="127" t="s">
         <v>692</v>
       </c>
-      <c r="F30" s="148" t="s">
+      <c r="F30" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G30" s="8" t="s">
@@ -16928,23 +16928,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="125"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E31" s="115"/>
-      <c r="F31" s="149"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="115"/>
       <c r="G31" s="8" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="125"/>
-      <c r="B32" s="116" t="s">
+      <c r="A32" s="120"/>
+      <c r="B32" s="138" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="32" t="s">
@@ -16953,10 +16953,10 @@
       <c r="D32" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="138" t="s">
+      <c r="E32" s="127" t="s">
         <v>694</v>
       </c>
-      <c r="F32" s="148" t="s">
+      <c r="F32" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -16964,25 +16964,25 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="126"/>
-      <c r="B33" s="117"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="E33" s="115"/>
-      <c r="F33" s="149"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="115"/>
       <c r="G33" s="8" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="119" t="s">
         <v>256</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="138" t="s">
         <v>245</v>
       </c>
       <c r="C34" s="32" t="s">
@@ -16991,10 +16991,10 @@
       <c r="D34" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="E34" s="118" t="s">
+      <c r="E34" s="124" t="s">
         <v>688</v>
       </c>
-      <c r="F34" s="148" t="s">
+      <c r="F34" s="114" t="s">
         <v>716</v>
       </c>
       <c r="G34" s="8" t="s">
@@ -17002,23 +17002,23 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="125"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="E35" s="115"/>
-      <c r="F35" s="149"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="115"/>
       <c r="G35" s="8" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
-      <c r="B36" s="116" t="s">
+      <c r="A36" s="120"/>
+      <c r="B36" s="138" t="s">
         <v>114</v>
       </c>
       <c r="C36" s="32" t="s">
@@ -17027,10 +17027,10 @@
       <c r="D36" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="114" t="s">
+      <c r="E36" s="130" t="s">
         <v>689</v>
       </c>
-      <c r="F36" s="148" t="s">
+      <c r="F36" s="114" t="s">
         <v>717</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -17038,23 +17038,23 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="125"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="E37" s="115"/>
-      <c r="F37" s="149"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="115"/>
       <c r="G37" s="8" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
-      <c r="B38" s="116" t="s">
+      <c r="A38" s="120"/>
+      <c r="B38" s="138" t="s">
         <v>119</v>
       </c>
       <c r="C38" s="32" t="s">
@@ -17063,10 +17063,10 @@
       <c r="D38" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E38" s="141" t="s">
+      <c r="E38" s="122" t="s">
         <v>690</v>
       </c>
-      <c r="F38" s="148" t="s">
+      <c r="F38" s="114" t="s">
         <v>717</v>
       </c>
       <c r="G38" s="8" t="s">
@@ -17074,23 +17074,23 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
-      <c r="B39" s="127"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E39" s="115"/>
-      <c r="F39" s="149"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="115"/>
       <c r="G39" s="8" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="125"/>
-      <c r="B40" s="128" t="s">
+      <c r="A40" s="120"/>
+      <c r="B40" s="149" t="s">
         <v>257</v>
       </c>
       <c r="C40" s="32" t="s">
@@ -17099,10 +17099,10 @@
       <c r="D40" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E40" s="118" t="s">
+      <c r="E40" s="124" t="s">
         <v>691</v>
       </c>
-      <c r="F40" s="148" t="s">
+      <c r="F40" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G40" s="8" t="s">
@@ -17110,23 +17110,23 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E41" s="115"/>
-      <c r="F41" s="149"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="115"/>
       <c r="G41" s="8" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="125"/>
-      <c r="B42" s="116" t="s">
+      <c r="A42" s="120"/>
+      <c r="B42" s="138" t="s">
         <v>512</v>
       </c>
       <c r="C42" s="32" t="s">
@@ -17135,10 +17135,10 @@
       <c r="D42" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E42" s="118" t="s">
+      <c r="E42" s="124" t="s">
         <v>693</v>
       </c>
-      <c r="F42" s="148" t="s">
+      <c r="F42" s="114" t="s">
         <v>717</v>
       </c>
       <c r="G42" s="8" t="s">
@@ -17146,23 +17146,23 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="125"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="E43" s="115"/>
-      <c r="F43" s="149"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="115"/>
       <c r="G43" s="8" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="125"/>
-      <c r="B44" s="116" t="s">
+      <c r="A44" s="120"/>
+      <c r="B44" s="138" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="32" t="s">
@@ -17171,10 +17171,10 @@
       <c r="D44" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="E44" s="118" t="s">
+      <c r="E44" s="124" t="s">
         <v>695</v>
       </c>
-      <c r="F44" s="148" t="s">
+      <c r="F44" s="114" t="s">
         <v>717</v>
       </c>
       <c r="G44" s="8" t="s">
@@ -17182,25 +17182,25 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="126"/>
-      <c r="B45" s="117"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="E45" s="115"/>
-      <c r="F45" s="149"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="115"/>
       <c r="G45" s="8" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="124" t="s">
+      <c r="A46" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="138" t="s">
         <v>576</v>
       </c>
       <c r="C46" s="32" t="s">
@@ -17209,10 +17209,10 @@
       <c r="D46" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E46" s="114" t="s">
+      <c r="E46" s="130" t="s">
         <v>698</v>
       </c>
-      <c r="F46" s="148" t="s">
+      <c r="F46" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G46" s="8" t="s">
@@ -17220,23 +17220,23 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="125"/>
-      <c r="B47" s="117"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E47" s="115"/>
-      <c r="F47" s="149"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="115"/>
       <c r="G47" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
-      <c r="B48" s="116" t="s">
+      <c r="A48" s="120"/>
+      <c r="B48" s="138" t="s">
         <v>577</v>
       </c>
       <c r="C48" s="32" t="s">
@@ -17245,10 +17245,10 @@
       <c r="D48" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E48" s="114" t="s">
+      <c r="E48" s="130" t="s">
         <v>699</v>
       </c>
-      <c r="F48" s="148" t="s">
+      <c r="F48" s="114" t="s">
         <v>715</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -17256,23 +17256,23 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="125"/>
-      <c r="B49" s="117"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="139"/>
       <c r="C49" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="149"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="115"/>
       <c r="G49" s="8" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="125"/>
-      <c r="B50" s="116" t="s">
+      <c r="A50" s="120"/>
+      <c r="B50" s="138" t="s">
         <v>578</v>
       </c>
       <c r="C50" s="32" t="s">
@@ -17281,10 +17281,10 @@
       <c r="D50" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E50" s="141" t="s">
+      <c r="E50" s="122" t="s">
         <v>700</v>
       </c>
-      <c r="F50" s="148" t="s">
+      <c r="F50" s="114" t="s">
         <v>717</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -17292,23 +17292,23 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="125"/>
-      <c r="B51" s="117"/>
+      <c r="A51" s="120"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E51" s="115"/>
-      <c r="F51" s="149"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="115"/>
       <c r="G51" s="8" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="125"/>
-      <c r="B52" s="116" t="s">
+      <c r="A52" s="120"/>
+      <c r="B52" s="138" t="s">
         <v>478</v>
       </c>
       <c r="C52" s="32" t="s">
@@ -17317,10 +17317,10 @@
       <c r="D52" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="E52" s="141" t="s">
+      <c r="E52" s="122" t="s">
         <v>701</v>
       </c>
-      <c r="F52" s="150" t="s">
+      <c r="F52" s="116" t="s">
         <v>715</v>
       </c>
       <c r="G52" s="8" t="s">
@@ -17328,25 +17328,25 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="125"/>
-      <c r="B53" s="117"/>
+      <c r="A53" s="120"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="32" t="s">
         <v>311</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="E53" s="115"/>
-      <c r="F53" s="149"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="115"/>
       <c r="G53" s="8" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="121" t="s">
+      <c r="A54" s="152" t="s">
         <v>247</v>
       </c>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="153" t="s">
         <v>704</v>
       </c>
       <c r="C54" s="81" t="s">
@@ -17355,32 +17355,32 @@
       <c r="D54" s="82" t="s">
         <v>705</v>
       </c>
-      <c r="E54" s="146" t="s">
+      <c r="E54" s="135" t="s">
         <v>703</v>
       </c>
-      <c r="F54" s="153"/>
+      <c r="F54" s="117"/>
       <c r="G54" s="8" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="121"/>
-      <c r="B55" s="123"/>
+      <c r="A55" s="152"/>
+      <c r="B55" s="154"/>
       <c r="C55" s="81" t="s">
         <v>684</v>
       </c>
       <c r="D55" s="82" t="s">
         <v>706</v>
       </c>
-      <c r="E55" s="147"/>
-      <c r="F55" s="154"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="118"/>
       <c r="G55" s="8" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="121"/>
-      <c r="B56" s="119" t="s">
+      <c r="A56" s="152"/>
+      <c r="B56" s="150" t="s">
         <v>481</v>
       </c>
       <c r="C56" s="32" t="s">
@@ -17389,10 +17389,10 @@
       <c r="D56" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="E56" s="142" t="s">
+      <c r="E56" s="131" t="s">
         <v>708</v>
       </c>
-      <c r="F56" s="148" t="s">
+      <c r="F56" s="114" t="s">
         <v>718</v>
       </c>
       <c r="G56" s="8" t="s">
@@ -17400,23 +17400,23 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
-      <c r="B57" s="120"/>
+      <c r="A57" s="152"/>
+      <c r="B57" s="151"/>
       <c r="C57" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="E57" s="143"/>
-      <c r="F57" s="149"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="115"/>
       <c r="G57" s="8" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
-      <c r="B58" s="119" t="s">
+      <c r="A58" s="152"/>
+      <c r="B58" s="150" t="s">
         <v>627</v>
       </c>
       <c r="C58" s="32" t="s">
@@ -17425,10 +17425,10 @@
       <c r="D58" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E58" s="144" t="s">
+      <c r="E58" s="133" t="s">
         <v>707</v>
       </c>
-      <c r="F58" s="148" t="s">
+      <c r="F58" s="114" t="s">
         <v>719</v>
       </c>
       <c r="G58" s="8" t="s">
@@ -17436,23 +17436,23 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="121"/>
-      <c r="B59" s="120"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="32" t="s">
         <v>311</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E59" s="143"/>
-      <c r="F59" s="149"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="115"/>
       <c r="G59" s="8" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="121"/>
-      <c r="B60" s="119" t="s">
+      <c r="A60" s="152"/>
+      <c r="B60" s="150" t="s">
         <v>254</v>
       </c>
       <c r="C60" s="32" t="s">
@@ -17461,10 +17461,10 @@
       <c r="D60" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E60" s="145" t="s">
+      <c r="E60" s="134" t="s">
         <v>709</v>
       </c>
-      <c r="F60" s="148" t="s">
+      <c r="F60" s="114" t="s">
         <v>720</v>
       </c>
       <c r="G60" s="8" t="s">
@@ -17472,23 +17472,23 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="121"/>
-      <c r="B61" s="120"/>
+      <c r="A61" s="152"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="32" t="s">
         <v>311</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="E61" s="143"/>
-      <c r="F61" s="149"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="115"/>
       <c r="G61" s="8" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="121"/>
-      <c r="B62" s="119" t="s">
+      <c r="A62" s="152"/>
+      <c r="B62" s="150" t="s">
         <v>486</v>
       </c>
       <c r="C62" s="32" t="s">
@@ -17497,8 +17497,8 @@
       <c r="D62" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E62" s="139"/>
-      <c r="F62" s="148" t="s">
+      <c r="E62" s="128"/>
+      <c r="F62" s="114" t="s">
         <v>719</v>
       </c>
       <c r="G62" s="8" t="s">
@@ -17506,23 +17506,23 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="121"/>
-      <c r="B63" s="120"/>
+      <c r="A63" s="152"/>
+      <c r="B63" s="151"/>
       <c r="C63" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E63" s="140"/>
-      <c r="F63" s="149"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="115"/>
       <c r="G63" s="8" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="121"/>
-      <c r="B64" s="119" t="s">
+      <c r="A64" s="152"/>
+      <c r="B64" s="150" t="s">
         <v>497</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -17531,8 +17531,8 @@
       <c r="D64" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="E64" s="139"/>
-      <c r="F64" s="148" t="s">
+      <c r="E64" s="128"/>
+      <c r="F64" s="114" t="s">
         <v>720</v>
       </c>
       <c r="G64" s="8" t="s">
@@ -17540,22 +17540,95 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="121"/>
-      <c r="B65" s="120"/>
+      <c r="A65" s="152"/>
+      <c r="B65" s="151"/>
       <c r="C65" s="32" t="s">
         <v>311</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E65" s="140"/>
-      <c r="F65" s="149"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="115"/>
       <c r="G65" s="8" t="s">
         <v>618</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="F64:F65"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F54:F55"/>
@@ -17572,79 +17645,6 @@
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18391,34 +18391,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="165" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>656</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="167" t="s">
         <v>658</v>
       </c>
-      <c r="B3" s="163"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="3" t="s">
         <v>659</v>
       </c>
@@ -18471,34 +18471,34 @@
       <c r="H5" s="62"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="165" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="161" t="s">
+      <c r="A9" s="166" t="s">
         <v>669</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="167" t="s">
         <v>658</v>
       </c>
-      <c r="B10" s="163"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="3" t="s">
         <v>659</v>
       </c>
@@ -18519,10 +18519,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="160" t="s">
         <v>665</v>
       </c>
-      <c r="B11" s="165"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="6" t="s">
         <v>666</v>
       </c>
@@ -18573,22 +18573,22 @@
       <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="162" t="s">
         <v>674</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="164"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="167" t="s">
         <v>658</v>
       </c>
-      <c r="B15" s="163"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="3" t="s">
         <v>659</v>
       </c>
@@ -18609,10 +18609,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="160" t="s">
         <v>665</v>
       </c>
-      <c r="B16" s="165"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="6" t="s">
         <v>666</v>
       </c>
@@ -18641,46 +18641,46 @@
       <c r="H17" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="165" t="s">
         <v>727</v>
       </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="166" t="s">
         <v>675</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="166" t="s">
         <v>676</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="167" t="s">
         <v>658</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="3" t="s">
         <v>659</v>
       </c>
@@ -18702,6 +18702,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A16:B16"/>
@@ -18715,11 +18720,6 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18750,70 +18750,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>724</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="162" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="164"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="174" t="s">
         <v>463</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="162" t="s">
         <v>722</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="168"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="163"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
@@ -18834,10 +18834,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="165"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -18866,22 +18866,22 @@
       <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="162" t="s">
         <v>391</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="168"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="164"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="163"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
@@ -18902,10 +18902,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="164" t="s">
+      <c r="A13" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="165"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
@@ -18963,7 +18963,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="171" t="s">
         <v>141</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -18987,7 +18987,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="174"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
@@ -19007,7 +19007,7 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="174"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
@@ -19027,7 +19027,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="174"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
@@ -19041,7 +19041,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="174"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="6" t="s">
         <v>386</v>
       </c>
@@ -19063,7 +19063,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="174"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
@@ -19083,7 +19083,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="174"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="6" t="s">
         <v>15</v>
       </c>
@@ -19118,34 +19118,34 @@
       <c r="H23" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="174" t="s">
         <v>464</v>
       </c>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="162" t="s">
         <v>723</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="168"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="164"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="162" t="s">
+      <c r="A28" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="163"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
@@ -19166,10 +19166,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="165"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
@@ -19198,22 +19198,22 @@
       <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="162" t="s">
         <v>392</v>
       </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="168"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="164"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="162" t="s">
+      <c r="A32" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="163"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
@@ -19234,10 +19234,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="164" t="s">
+      <c r="A33" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="165"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
@@ -19271,7 +19271,7 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="172" t="s">
+      <c r="A35" s="175" t="s">
         <v>141</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -19295,7 +19295,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
+      <c r="A36" s="175"/>
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
@@ -19315,7 +19315,7 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
+      <c r="A37" s="175"/>
       <c r="B37" s="6" t="s">
         <v>15</v>
       </c>
@@ -19335,7 +19335,7 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="172"/>
+      <c r="A38" s="175"/>
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
@@ -19351,7 +19351,7 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="172"/>
+      <c r="A39" s="175"/>
       <c r="B39" s="6" t="s">
         <v>386</v>
       </c>
@@ -19373,7 +19373,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="172"/>
+      <c r="A40" s="175"/>
       <c r="B40" s="6" t="s">
         <v>14</v>
       </c>
@@ -19393,7 +19393,7 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="172"/>
+      <c r="A41" s="175"/>
       <c r="B41" s="6" t="s">
         <v>15</v>
       </c>
@@ -19428,34 +19428,34 @@
       <c r="H42" s="62"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="171" t="s">
+      <c r="A45" s="174" t="s">
         <v>465</v>
       </c>
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="174"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="174"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="161" t="s">
+      <c r="A46" s="166" t="s">
         <v>472</v>
       </c>
-      <c r="B46" s="161"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="162" t="s">
+      <c r="A47" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="163"/>
+      <c r="B47" s="168"/>
       <c r="C47" s="3" t="s">
         <v>2</v>
       </c>
@@ -19476,10 +19476,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="164" t="s">
+      <c r="A48" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="165"/>
+      <c r="B48" s="161"/>
       <c r="C48" s="6" t="s">
         <v>8</v>
       </c>
@@ -19508,22 +19508,22 @@
       <c r="H49" s="62"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="166" t="s">
+      <c r="A50" s="162" t="s">
         <v>473</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="168"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="164"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="162" t="s">
+      <c r="A51" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="163"/>
+      <c r="B51" s="168"/>
       <c r="C51" s="3" t="s">
         <v>2</v>
       </c>
@@ -19544,10 +19544,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="164" t="s">
+      <c r="A52" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="165"/>
+      <c r="B52" s="161"/>
       <c r="C52" s="6" t="s">
         <v>8</v>
       </c>
@@ -19583,7 +19583,7 @@
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="173" t="s">
+      <c r="A54" s="171" t="s">
         <v>141</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -19605,7 +19605,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="174"/>
+      <c r="A55" s="172"/>
       <c r="B55" s="6" t="s">
         <v>219</v>
       </c>
@@ -19623,7 +19623,7 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="174"/>
+      <c r="A56" s="172"/>
       <c r="B56" s="6" t="s">
         <v>221</v>
       </c>
@@ -19641,7 +19641,7 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="174"/>
+      <c r="A57" s="172"/>
       <c r="B57" s="6" t="s">
         <v>10</v>
       </c>
@@ -19657,7 +19657,7 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="174"/>
+      <c r="A58" s="172"/>
       <c r="B58" s="6" t="s">
         <v>216</v>
       </c>
@@ -19675,7 +19675,7 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="174"/>
+      <c r="A59" s="172"/>
       <c r="B59" s="6" t="s">
         <v>219</v>
       </c>
@@ -19693,7 +19693,7 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="174"/>
+      <c r="A60" s="172"/>
       <c r="B60" s="6" t="s">
         <v>221</v>
       </c>
@@ -19726,34 +19726,34 @@
       <c r="H61" s="62"/>
     </row>
     <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="171" t="s">
+      <c r="A64" s="174" t="s">
         <v>466</v>
       </c>
-      <c r="B64" s="171"/>
-      <c r="C64" s="171"/>
-      <c r="D64" s="171"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="171"/>
-      <c r="G64" s="171"/>
-      <c r="H64" s="171"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
+      <c r="E64" s="174"/>
+      <c r="F64" s="174"/>
+      <c r="G64" s="174"/>
+      <c r="H64" s="174"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="161" t="s">
+      <c r="A65" s="166" t="s">
         <v>471</v>
       </c>
-      <c r="B65" s="161"/>
-      <c r="C65" s="161"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="161"/>
-      <c r="F65" s="161"/>
-      <c r="G65" s="161"/>
-      <c r="H65" s="161"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="166"/>
+      <c r="E65" s="166"/>
+      <c r="F65" s="166"/>
+      <c r="G65" s="166"/>
+      <c r="H65" s="166"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="162" t="s">
+      <c r="A66" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="163"/>
+      <c r="B66" s="168"/>
       <c r="C66" s="3" t="s">
         <v>2</v>
       </c>
@@ -19774,10 +19774,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="164" t="s">
+      <c r="A67" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="165"/>
+      <c r="B67" s="161"/>
       <c r="C67" s="6" t="s">
         <v>8</v>
       </c>
@@ -19791,7 +19791,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="173" t="s">
+      <c r="A68" s="171" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -19813,7 +19813,7 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="174"/>
+      <c r="A69" s="172"/>
       <c r="B69" s="6" t="s">
         <v>389</v>
       </c>
@@ -19833,7 +19833,7 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="174"/>
+      <c r="A70" s="172"/>
       <c r="B70" s="6" t="s">
         <v>91</v>
       </c>
@@ -19853,7 +19853,7 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="175"/>
+      <c r="A71" s="173"/>
       <c r="B71" s="6" t="s">
         <v>390</v>
       </c>
@@ -19890,22 +19890,22 @@
       <c r="H72" s="62"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="166" t="s">
+      <c r="A73" s="162" t="s">
         <v>470</v>
       </c>
-      <c r="B73" s="167"/>
-      <c r="C73" s="167"/>
-      <c r="D73" s="167"/>
-      <c r="E73" s="167"/>
-      <c r="F73" s="167"/>
-      <c r="G73" s="167"/>
-      <c r="H73" s="168"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="163"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="163"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="164"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="162" t="s">
+      <c r="A74" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="163"/>
+      <c r="B74" s="168"/>
       <c r="C74" s="3" t="s">
         <v>2</v>
       </c>
@@ -19926,10 +19926,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="164" t="s">
+      <c r="A75" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="165"/>
+      <c r="B75" s="161"/>
       <c r="C75" s="6" t="s">
         <v>8</v>
       </c>
@@ -19943,7 +19943,7 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="173" t="s">
+      <c r="A76" s="171" t="s">
         <v>31</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -19965,7 +19965,7 @@
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="174"/>
+      <c r="A77" s="172"/>
       <c r="B77" s="6" t="s">
         <v>389</v>
       </c>
@@ -19985,7 +19985,7 @@
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="174"/>
+      <c r="A78" s="172"/>
       <c r="B78" s="6" t="s">
         <v>91</v>
       </c>
@@ -20005,7 +20005,7 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="175"/>
+      <c r="A79" s="173"/>
       <c r="B79" s="6" t="s">
         <v>390</v>
       </c>
@@ -20042,34 +20042,34 @@
       <c r="H80" s="62"/>
     </row>
     <row r="83" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="171" t="s">
+      <c r="A83" s="174" t="s">
         <v>467</v>
       </c>
-      <c r="B83" s="171"/>
-      <c r="C83" s="171"/>
-      <c r="D83" s="171"/>
-      <c r="E83" s="171"/>
-      <c r="F83" s="171"/>
-      <c r="G83" s="171"/>
-      <c r="H83" s="171"/>
+      <c r="B83" s="174"/>
+      <c r="C83" s="174"/>
+      <c r="D83" s="174"/>
+      <c r="E83" s="174"/>
+      <c r="F83" s="174"/>
+      <c r="G83" s="174"/>
+      <c r="H83" s="174"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="161" t="s">
+      <c r="A84" s="166" t="s">
         <v>468</v>
       </c>
-      <c r="B84" s="161"/>
-      <c r="C84" s="161"/>
-      <c r="D84" s="161"/>
-      <c r="E84" s="161"/>
-      <c r="F84" s="161"/>
-      <c r="G84" s="161"/>
-      <c r="H84" s="161"/>
+      <c r="B84" s="166"/>
+      <c r="C84" s="166"/>
+      <c r="D84" s="166"/>
+      <c r="E84" s="166"/>
+      <c r="F84" s="166"/>
+      <c r="G84" s="166"/>
+      <c r="H84" s="166"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="162" t="s">
+      <c r="A85" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="163"/>
+      <c r="B85" s="168"/>
       <c r="C85" s="3" t="s">
         <v>2</v>
       </c>
@@ -20090,10 +20090,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="164" t="s">
+      <c r="A86" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="165"/>
+      <c r="B86" s="161"/>
       <c r="C86" s="6" t="s">
         <v>8</v>
       </c>
@@ -20107,7 +20107,7 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="173" t="s">
+      <c r="A87" s="171" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -20127,7 +20127,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="174"/>
+      <c r="A88" s="172"/>
       <c r="B88" s="6" t="s">
         <v>150</v>
       </c>
@@ -20145,7 +20145,7 @@
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="174"/>
+      <c r="A89" s="172"/>
       <c r="B89" s="6" t="s">
         <v>151</v>
       </c>
@@ -20163,7 +20163,7 @@
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="175"/>
+      <c r="A90" s="173"/>
       <c r="B90" s="6" t="s">
         <v>152</v>
       </c>
@@ -20196,22 +20196,22 @@
       <c r="H91" s="62"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="166" t="s">
+      <c r="A92" s="162" t="s">
         <v>469</v>
       </c>
-      <c r="B92" s="167"/>
-      <c r="C92" s="167"/>
-      <c r="D92" s="167"/>
-      <c r="E92" s="167"/>
-      <c r="F92" s="167"/>
-      <c r="G92" s="167"/>
-      <c r="H92" s="168"/>
+      <c r="B92" s="163"/>
+      <c r="C92" s="163"/>
+      <c r="D92" s="163"/>
+      <c r="E92" s="163"/>
+      <c r="F92" s="163"/>
+      <c r="G92" s="163"/>
+      <c r="H92" s="164"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="162" t="s">
+      <c r="A93" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="163"/>
+      <c r="B93" s="168"/>
       <c r="C93" s="3" t="s">
         <v>2</v>
       </c>
@@ -20232,10 +20232,10 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="164" t="s">
+      <c r="A94" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="165"/>
+      <c r="B94" s="161"/>
       <c r="C94" s="6" t="s">
         <v>8</v>
       </c>
@@ -20249,7 +20249,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="173" t="s">
+      <c r="A95" s="171" t="s">
         <v>31</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -20269,7 +20269,7 @@
       <c r="H95" s="46"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="174"/>
+      <c r="A96" s="172"/>
       <c r="B96" s="6" t="s">
         <v>150</v>
       </c>
@@ -20287,7 +20287,7 @@
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="174"/>
+      <c r="A97" s="172"/>
       <c r="B97" s="6" t="s">
         <v>151</v>
       </c>
@@ -20305,7 +20305,7 @@
       <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="175"/>
+      <c r="A98" s="173"/>
       <c r="B98" s="6" t="s">
         <v>152</v>
       </c>
@@ -20339,32 +20339,19 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -20381,19 +20368,32 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:A98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -20412,7 +20412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
@@ -20429,34 +20429,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="166" t="s">
         <v>558</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="163"/>
+      <c r="B3" s="168"/>
       <c r="C3" s="3" t="s">
         <v>313</v>
       </c>
@@ -20477,10 +20477,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="165"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="6" t="s">
         <v>320</v>
       </c>
@@ -20509,22 +20509,22 @@
       <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="162" t="s">
         <v>559</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="164"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B7" s="163"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="3" t="s">
         <v>313</v>
       </c>
@@ -20545,10 +20545,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="165"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="6" t="s">
         <v>320</v>
       </c>
@@ -20586,7 +20586,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="171" t="s">
         <v>397</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -20610,7 +20610,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="174"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="6" t="s">
         <v>401</v>
       </c>
@@ -20630,7 +20630,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="174"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="6" t="s">
         <v>404</v>
       </c>
@@ -20650,7 +20650,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="174"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="6" t="s">
         <v>381</v>
       </c>
@@ -20664,7 +20664,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="6" t="s">
         <v>398</v>
       </c>
@@ -20686,7 +20686,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
+      <c r="A15" s="172"/>
       <c r="B15" s="6" t="s">
         <v>401</v>
       </c>
@@ -20706,7 +20706,7 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
+      <c r="A16" s="172"/>
       <c r="B16" s="6" t="s">
         <v>404</v>
       </c>
@@ -20741,34 +20741,34 @@
       <c r="H17" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="171" t="s">
+      <c r="A20" s="174" t="s">
         <v>440</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="166" t="s">
         <v>487</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="162" t="s">
+      <c r="A22" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="163"/>
+      <c r="B22" s="168"/>
       <c r="C22" s="3" t="s">
         <v>313</v>
       </c>
@@ -20789,10 +20789,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="165"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="6" t="s">
         <v>320</v>
       </c>
@@ -20828,7 +20828,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="171" t="s">
         <v>397</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -20852,7 +20852,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="174"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="6" t="s">
         <v>401</v>
       </c>
@@ -20872,7 +20872,7 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="174"/>
+      <c r="A27" s="172"/>
       <c r="B27" s="6" t="s">
         <v>404</v>
       </c>
@@ -20892,7 +20892,7 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="6" t="s">
         <v>381</v>
       </c>
@@ -20906,7 +20906,7 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="174"/>
+      <c r="A29" s="172"/>
       <c r="B29" s="6" t="s">
         <v>398</v>
       </c>
@@ -20928,7 +20928,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="174"/>
+      <c r="A30" s="172"/>
       <c r="B30" s="6" t="s">
         <v>401</v>
       </c>
@@ -20948,7 +20948,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="174"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="6" t="s">
         <v>404</v>
       </c>
@@ -20983,22 +20983,22 @@
       <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="162" t="s">
         <v>488</v>
       </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="168"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="164"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B34" s="163"/>
+      <c r="B34" s="168"/>
       <c r="C34" s="3" t="s">
         <v>313</v>
       </c>
@@ -21019,10 +21019,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="164" t="s">
+      <c r="A35" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B35" s="165"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="6" t="s">
         <v>320</v>
       </c>
@@ -21051,34 +21051,34 @@
       <c r="H36" s="62"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="171" t="s">
+      <c r="A39" s="174" t="s">
         <v>441</v>
       </c>
-      <c r="B39" s="171"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
+      <c r="B39" s="174"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="166" t="s">
         <v>489</v>
       </c>
-      <c r="B40" s="161"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B41" s="163"/>
+      <c r="B41" s="168"/>
       <c r="C41" s="3" t="s">
         <v>313</v>
       </c>
@@ -21099,10 +21099,10 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="164" t="s">
+      <c r="A42" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B42" s="165"/>
+      <c r="B42" s="161"/>
       <c r="C42" s="6" t="s">
         <v>320</v>
       </c>
@@ -21138,7 +21138,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="172" t="s">
+      <c r="A44" s="175" t="s">
         <v>397</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -21162,7 +21162,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="172"/>
+      <c r="A45" s="175"/>
       <c r="B45" s="6" t="s">
         <v>401</v>
       </c>
@@ -21182,7 +21182,7 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="172"/>
+      <c r="A46" s="175"/>
       <c r="B46" s="6" t="s">
         <v>404</v>
       </c>
@@ -21202,7 +21202,7 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="172"/>
+      <c r="A47" s="175"/>
       <c r="B47" s="6" t="s">
         <v>381</v>
       </c>
@@ -21218,7 +21218,7 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="172"/>
+      <c r="A48" s="175"/>
       <c r="B48" s="6" t="s">
         <v>398</v>
       </c>
@@ -21240,7 +21240,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="172"/>
+      <c r="A49" s="175"/>
       <c r="B49" s="6" t="s">
         <v>401</v>
       </c>
@@ -21260,7 +21260,7 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="172"/>
+      <c r="A50" s="175"/>
       <c r="B50" s="6" t="s">
         <v>404</v>
       </c>
@@ -21295,22 +21295,22 @@
       <c r="H51" s="62"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="166" t="s">
+      <c r="A52" s="162" t="s">
         <v>490</v>
       </c>
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="168"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="164"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="162" t="s">
+      <c r="A53" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B53" s="163"/>
+      <c r="B53" s="168"/>
       <c r="C53" s="3" t="s">
         <v>313</v>
       </c>
@@ -21331,10 +21331,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="164" t="s">
+      <c r="A54" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B54" s="165"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="6" t="s">
         <v>320</v>
       </c>
@@ -21363,34 +21363,34 @@
       <c r="H55" s="62"/>
     </row>
     <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="171" t="s">
+      <c r="A58" s="174" t="s">
         <v>444</v>
       </c>
-      <c r="B58" s="171"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="174"/>
+      <c r="E58" s="174"/>
+      <c r="F58" s="174"/>
+      <c r="G58" s="174"/>
+      <c r="H58" s="174"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="161" t="s">
+      <c r="A59" s="166" t="s">
         <v>496</v>
       </c>
-      <c r="B59" s="161"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
-      <c r="H59" s="161"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="166"/>
+      <c r="H59" s="166"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="162" t="s">
+      <c r="A60" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B60" s="163"/>
+      <c r="B60" s="168"/>
       <c r="C60" s="3" t="s">
         <v>313</v>
       </c>
@@ -21411,10 +21411,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="164" t="s">
+      <c r="A61" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="165"/>
+      <c r="B61" s="161"/>
       <c r="C61" s="6" t="s">
         <v>320</v>
       </c>
@@ -21428,7 +21428,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="173" t="s">
+      <c r="A62" s="171" t="s">
         <v>321</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -21450,7 +21450,7 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="174"/>
+      <c r="A63" s="172"/>
       <c r="B63" s="6" t="s">
         <v>434</v>
       </c>
@@ -21470,7 +21470,7 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="175"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="6" t="s">
         <v>436</v>
       </c>
@@ -21505,22 +21505,22 @@
       <c r="H65" s="62"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="166" t="s">
+      <c r="A66" s="162" t="s">
         <v>495</v>
       </c>
-      <c r="B66" s="167"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="168"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
+      <c r="E66" s="163"/>
+      <c r="F66" s="163"/>
+      <c r="G66" s="163"/>
+      <c r="H66" s="164"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="162" t="s">
+      <c r="A67" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B67" s="163"/>
+      <c r="B67" s="168"/>
       <c r="C67" s="3" t="s">
         <v>313</v>
       </c>
@@ -21541,10 +21541,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="164" t="s">
+      <c r="A68" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B68" s="165"/>
+      <c r="B68" s="161"/>
       <c r="C68" s="6" t="s">
         <v>320</v>
       </c>
@@ -21573,34 +21573,34 @@
       <c r="H69" s="62"/>
     </row>
     <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="171" t="s">
+      <c r="A72" s="174" t="s">
         <v>442</v>
       </c>
-      <c r="B72" s="171"/>
-      <c r="C72" s="171"/>
-      <c r="D72" s="171"/>
-      <c r="E72" s="171"/>
-      <c r="F72" s="171"/>
-      <c r="G72" s="171"/>
-      <c r="H72" s="171"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="174"/>
+      <c r="D72" s="174"/>
+      <c r="E72" s="174"/>
+      <c r="F72" s="174"/>
+      <c r="G72" s="174"/>
+      <c r="H72" s="174"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="161" t="s">
+      <c r="A73" s="166" t="s">
         <v>492</v>
       </c>
-      <c r="B73" s="161"/>
-      <c r="C73" s="161"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="161"/>
-      <c r="F73" s="161"/>
-      <c r="G73" s="161"/>
-      <c r="H73" s="161"/>
+      <c r="B73" s="166"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="166"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="162" t="s">
+      <c r="A74" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B74" s="163"/>
+      <c r="B74" s="168"/>
       <c r="C74" s="3" t="s">
         <v>313</v>
       </c>
@@ -21621,10 +21621,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="164" t="s">
+      <c r="A75" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B75" s="165"/>
+      <c r="B75" s="161"/>
       <c r="C75" s="6" t="s">
         <v>320</v>
       </c>
@@ -21638,7 +21638,7 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="173" t="s">
+      <c r="A76" s="171" t="s">
         <v>321</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -21660,7 +21660,7 @@
       <c r="H76" s="46"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="174"/>
+      <c r="A77" s="172"/>
       <c r="B77" s="6" t="s">
         <v>415</v>
       </c>
@@ -21680,7 +21680,7 @@
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="174"/>
+      <c r="A78" s="172"/>
       <c r="B78" s="6" t="s">
         <v>418</v>
       </c>
@@ -21700,7 +21700,7 @@
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="175"/>
+      <c r="A79" s="173"/>
       <c r="B79" s="6" t="s">
         <v>421</v>
       </c>
@@ -21735,22 +21735,22 @@
       <c r="H80" s="62"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="166" t="s">
+      <c r="A81" s="162" t="s">
         <v>491</v>
       </c>
-      <c r="B81" s="167"/>
-      <c r="C81" s="167"/>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
-      <c r="F81" s="167"/>
-      <c r="G81" s="167"/>
-      <c r="H81" s="168"/>
+      <c r="B81" s="163"/>
+      <c r="C81" s="163"/>
+      <c r="D81" s="163"/>
+      <c r="E81" s="163"/>
+      <c r="F81" s="163"/>
+      <c r="G81" s="163"/>
+      <c r="H81" s="164"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="162" t="s">
+      <c r="A82" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B82" s="163"/>
+      <c r="B82" s="168"/>
       <c r="C82" s="3" t="s">
         <v>313</v>
       </c>
@@ -21771,10 +21771,10 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="164" t="s">
+      <c r="A83" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B83" s="165"/>
+      <c r="B83" s="161"/>
       <c r="C83" s="6" t="s">
         <v>320</v>
       </c>
@@ -21803,34 +21803,34 @@
       <c r="H84" s="62"/>
     </row>
     <row r="87" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="171" t="s">
+      <c r="A87" s="174" t="s">
         <v>443</v>
       </c>
-      <c r="B87" s="171"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="171"/>
-      <c r="H87" s="171"/>
+      <c r="B87" s="174"/>
+      <c r="C87" s="174"/>
+      <c r="D87" s="174"/>
+      <c r="E87" s="174"/>
+      <c r="F87" s="174"/>
+      <c r="G87" s="174"/>
+      <c r="H87" s="174"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="161" t="s">
+      <c r="A88" s="166" t="s">
         <v>493</v>
       </c>
-      <c r="B88" s="161"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="161"/>
-      <c r="G88" s="161"/>
-      <c r="H88" s="161"/>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
+      <c r="G88" s="166"/>
+      <c r="H88" s="166"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="162" t="s">
+      <c r="A89" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B89" s="163"/>
+      <c r="B89" s="168"/>
       <c r="C89" s="3" t="s">
         <v>313</v>
       </c>
@@ -21851,10 +21851,10 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="164" t="s">
+      <c r="A90" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B90" s="165"/>
+      <c r="B90" s="161"/>
       <c r="C90" s="6" t="s">
         <v>320</v>
       </c>
@@ -21868,7 +21868,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="173" t="s">
+      <c r="A91" s="171" t="s">
         <v>321</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -21888,7 +21888,7 @@
       <c r="H91" s="46"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="174"/>
+      <c r="A92" s="172"/>
       <c r="B92" s="6" t="s">
         <v>425</v>
       </c>
@@ -21906,7 +21906,7 @@
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="174"/>
+      <c r="A93" s="172"/>
       <c r="B93" s="6" t="s">
         <v>427</v>
       </c>
@@ -21924,7 +21924,7 @@
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="175"/>
+      <c r="A94" s="173"/>
       <c r="B94" s="6" t="s">
         <v>429</v>
       </c>
@@ -21957,22 +21957,22 @@
       <c r="H95" s="62"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="166" t="s">
+      <c r="A96" s="162" t="s">
         <v>494</v>
       </c>
-      <c r="B96" s="167"/>
-      <c r="C96" s="167"/>
-      <c r="D96" s="167"/>
-      <c r="E96" s="167"/>
-      <c r="F96" s="167"/>
-      <c r="G96" s="167"/>
-      <c r="H96" s="168"/>
+      <c r="B96" s="163"/>
+      <c r="C96" s="163"/>
+      <c r="D96" s="163"/>
+      <c r="E96" s="163"/>
+      <c r="F96" s="163"/>
+      <c r="G96" s="163"/>
+      <c r="H96" s="164"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="162" t="s">
+      <c r="A97" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B97" s="163"/>
+      <c r="B97" s="168"/>
       <c r="C97" s="3" t="s">
         <v>313</v>
       </c>
@@ -21993,10 +21993,10 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="164" t="s">
+      <c r="A98" s="160" t="s">
         <v>319</v>
       </c>
-      <c r="B98" s="165"/>
+      <c r="B98" s="161"/>
       <c r="C98" s="6" t="s">
         <v>320</v>
       </c>
@@ -22026,6 +22026,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="A98:B98"/>
@@ -22042,50 +22086,6 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A73:H73"/>
     <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:B41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22115,34 +22115,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="180" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="177"/>
       <c r="C3" s="34" t="s">
         <v>166</v>
       </c>
@@ -22163,10 +22163,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="182"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="37" t="s">
         <v>173</v>
       </c>
@@ -22202,11 +22202,11 @@
       <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="185"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="56"/>
       <c r="E6" s="57"/>
       <c r="F6" s="58">
@@ -22217,22 +22217,22 @@
       <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="184" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="178"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="185"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="186"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="179" t="s">
+      <c r="A8" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="180"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="34" t="s">
         <v>166</v>
       </c>
@@ -22253,10 +22253,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="182"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="37" t="s">
         <v>173</v>
       </c>
@@ -22270,11 +22270,11 @@
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="184"/>
-      <c r="C10" s="185"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
       <c r="D10" s="56"/>
       <c r="E10" s="57"/>
       <c r="F10" s="57">
@@ -22285,34 +22285,34 @@
       <c r="H10" s="59"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="187" t="s">
         <v>447</v>
       </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="195"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="180"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="34" t="s">
         <v>166</v>
       </c>
@@ -22333,10 +22333,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="182"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="37" t="s">
         <v>173</v>
       </c>
@@ -22412,11 +22412,11 @@
       <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="184"/>
-      <c r="C20" s="185"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="56"/>
       <c r="E20" s="57"/>
       <c r="F20" s="58">
@@ -22427,22 +22427,22 @@
       <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="184" t="s">
         <v>448</v>
       </c>
-      <c r="B21" s="177"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="178"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="180"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="34" t="s">
         <v>166</v>
       </c>
@@ -22463,10 +22463,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="182"/>
+      <c r="B23" s="179"/>
       <c r="C23" s="37" t="s">
         <v>173</v>
       </c>
@@ -22480,11 +22480,11 @@
       <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="183" t="s">
+      <c r="A24" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="184"/>
-      <c r="C24" s="185"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="56"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57">
@@ -22495,34 +22495,34 @@
       <c r="H24" s="59"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="174" t="s">
         <v>573</v>
       </c>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="186" t="s">
+      <c r="A28" s="180" t="s">
         <v>449</v>
       </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="180"/>
+      <c r="B29" s="177"/>
       <c r="C29" s="34" t="s">
         <v>166</v>
       </c>
@@ -22543,10 +22543,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="181" t="s">
+      <c r="A30" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="182"/>
+      <c r="B30" s="179"/>
       <c r="C30" s="37" t="s">
         <v>173</v>
       </c>
@@ -22602,11 +22602,11 @@
       <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="183" t="s">
+      <c r="A33" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="184"/>
-      <c r="C33" s="185"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="56"/>
       <c r="E33" s="57"/>
       <c r="F33" s="58">
@@ -22617,22 +22617,22 @@
       <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="184" t="s">
         <v>450</v>
       </c>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="178"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="186"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="180"/>
+      <c r="B35" s="177"/>
       <c r="C35" s="34" t="s">
         <v>166</v>
       </c>
@@ -22653,10 +22653,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="181" t="s">
+      <c r="A36" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B36" s="182"/>
+      <c r="B36" s="179"/>
       <c r="C36" s="37" t="s">
         <v>173</v>
       </c>
@@ -22670,11 +22670,11 @@
       <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="183" t="s">
+      <c r="A37" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="183"/>
       <c r="D37" s="56"/>
       <c r="E37" s="57"/>
       <c r="F37" s="58">
@@ -22685,34 +22685,34 @@
       <c r="H37" s="59"/>
     </row>
     <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="171" t="s">
+      <c r="A40" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
+      <c r="B40" s="174"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="180" t="s">
         <v>451</v>
       </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="180"/>
+      <c r="B42" s="177"/>
       <c r="C42" s="34" t="s">
         <v>166</v>
       </c>
@@ -22733,10 +22733,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="181" t="s">
+      <c r="A43" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="182"/>
+      <c r="B43" s="179"/>
       <c r="C43" s="37" t="s">
         <v>173</v>
       </c>
@@ -22750,7 +22750,7 @@
       <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="187" t="s">
+      <c r="A44" s="193" t="s">
         <v>160</v>
       </c>
       <c r="B44" s="37" t="s">
@@ -22770,7 +22770,7 @@
       <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="188"/>
+      <c r="A45" s="194"/>
       <c r="B45" s="37" t="s">
         <v>233</v>
       </c>
@@ -22788,7 +22788,7 @@
       <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="189"/>
+      <c r="A46" s="195"/>
       <c r="B46" s="37" t="s">
         <v>652</v>
       </c>
@@ -22806,11 +22806,11 @@
       <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="183" t="s">
+      <c r="A47" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="184"/>
-      <c r="C47" s="185"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="183"/>
       <c r="D47" s="56"/>
       <c r="E47" s="57"/>
       <c r="F47" s="57">
@@ -22821,22 +22821,22 @@
       <c r="H47" s="59"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="176" t="s">
+      <c r="A48" s="184" t="s">
         <v>452</v>
       </c>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="178"/>
+      <c r="B48" s="185"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="185"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="186"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="179" t="s">
+      <c r="A49" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="180"/>
+      <c r="B49" s="177"/>
       <c r="C49" s="34" t="s">
         <v>166</v>
       </c>
@@ -22857,10 +22857,10 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="181" t="s">
+      <c r="A50" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="182"/>
+      <c r="B50" s="179"/>
       <c r="C50" s="37" t="s">
         <v>173</v>
       </c>
@@ -22874,11 +22874,11 @@
       <c r="H50" s="37"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="183" t="s">
+      <c r="A51" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="184"/>
-      <c r="C51" s="185"/>
+      <c r="B51" s="182"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="56"/>
       <c r="E51" s="57"/>
       <c r="F51" s="57">
@@ -22890,6 +22890,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
@@ -22906,29 +22929,6 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
